--- a/src/test/resources/excel/Unext_Admin_credentials.xlsx
+++ b/src/test/resources/excel/Unext_Admin_credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValidData" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -27,18 +27,21 @@
     <t>shriinithi@datanetiix.com</t>
   </si>
   <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>ggg@qq.ww</t>
+  </si>
+  <si>
+    <t>qweert</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
     <t>C3hSkMKLa2</t>
   </si>
   <si>
-    <t>ggg@qq.ww</t>
-  </si>
-  <si>
-    <t>qweert</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>shriinithi@</t>
   </si>
   <si>
@@ -78,7 +81,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>seleniu-unext@yopmail.com</t>
+    <t>selenium-unext@yopmail.com</t>
   </si>
   <si>
     <t>555, Test street</t>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,6 +129,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -133,14 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,21 +174,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -216,38 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,55 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,97 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +456,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,21 +494,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +533,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,164 +556,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,8 +1043,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1058,13 +1061,14 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="shriinithi@datanetiix.com" tooltip="mailto:shriinithi@datanetiix.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1116,17 +1120,17 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1136,10 +1140,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1160,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="L11:L1048576 L1:L9 K$1:K$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1179,57 +1183,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>9876543210</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2">
         <v>87789</v>
@@ -1237,8 +1241,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="seleniu-unext@yopmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="selenium-unext@yopmail.com" tooltip="mailto:selenium-unext@yopmail.com"/>
     <hyperlink ref="A2" r:id="rId2" display="shriinithi@datanetiix.com" tooltip="mailto:shriinithi@datanetiix.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/excel/Unext_Admin_credentials.xlsx
+++ b/src/test/resources/excel/Unext_Admin_credentials.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValidData" sheetId="1" r:id="rId1"/>
     <sheet name="LoginInvalidData" sheetId="2" r:id="rId2"/>
     <sheet name="AddClient" sheetId="3" r:id="rId3"/>
+    <sheet name="ProValidLogin" sheetId="4" r:id="rId4"/>
+    <sheet name="ProInValidLogin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -91,6 +93,9 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>gopinath@datanetiix.com</t>
   </si>
 </sst>
 </file>
@@ -98,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -129,36 +134,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +208,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -225,32 +231,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +505,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -531,13 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,153 +552,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,16 +715,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1048,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1063,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1080,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1095,7 +1100,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1103,7 +1108,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1111,7 +1116,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1129,12 +1134,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1208,34 +1213,34 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>9876543210</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>87789</v>
       </c>
     </row>
@@ -1248,4 +1253,125 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="gopinath@datanetiix.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="ggg@qq.ww"/>
+    <hyperlink ref="A3" r:id="rId2" display="shriinithi@datanetiix.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="shriinithi@datanetiix.com"/>
+    <hyperlink ref="A7" r:id="rId3" display="shriinithi@datanetiix"/>
+    <hyperlink ref="A8" r:id="rId2" display="shriinithi@datanetiix.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>